--- a/group4/项目进度/4组项目进度表0723 .xlsx
+++ b/group4/项目进度/4组项目进度表0723 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD988366-6E37-4C78-A257-E7BEE914FED6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F48867-B682-40BD-87B6-50A19448558F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>登录注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首页吸顶和轮播图、楼梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +206,10 @@
   </si>
   <si>
     <t>https://gitee.com/lvyunf3/i360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页ajax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -657,13 +657,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="H3" s="4">
         <v>0.1</v>
@@ -681,7 +681,7 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -763,13 +763,13 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="H7" s="4">
         <v>0.15</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>

--- a/group4/项目进度/4组项目进度表0723 .xlsx
+++ b/group4/项目进度/4组项目进度表0723 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F48867-B682-40BD-87B6-50A19448558F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DC8AC-5D67-4A3A-BFD9-49E88DB34EFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>祖莹</t>
   </si>
   <si>
@@ -210,6 +206,10 @@
   </si>
   <si>
     <t>首页ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +578,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +629,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -657,13 +657,13 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="4">
         <v>0.1</v>
@@ -681,13 +681,13 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -763,13 +763,13 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="4">
         <v>0.15</v>
@@ -787,7 +787,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -821,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4">
         <v>0.1</v>

--- a/group4/项目进度/4组项目进度表0723 .xlsx
+++ b/group4/项目进度/4组项目进度表0723 .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DC8AC-5D67-4A3A-BFD9-49E88DB34EFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7553FF3-EA45-47E1-8134-359F3A8472C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,7 +209,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>https://gitee.com/guangruixiao/xgr_cuizi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/zy10628/huawei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/wNorthfish/second_stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/mayun_hxj/YOU_163</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,7 +594,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -655,7 +671,9 @@
         <v>10</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>45</v>
       </c>
@@ -687,7 +705,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>15</v>
@@ -734,7 +752,9 @@
         <v>22</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
       </c>
@@ -761,7 +781,9 @@
         <v>24</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
@@ -813,7 +835,9 @@
         <v>38</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
@@ -947,8 +971,12 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{8C494316-F884-40AB-A44D-9F6804D3F604}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{5922B296-A016-4081-9DFA-9A6B0356BCCD}"/>
     <hyperlink ref="D4" r:id="rId4" xr:uid="{FDE76AA8-A095-436B-8861-4CDC2E49AF7B}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{7E3F52C1-4F7B-4C65-BF13-B47C7AF0AA45}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{BF9FFBFD-870D-442F-B0F5-ECF2D0F53FA9}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{ABB58EA0-484B-4462-BE98-4302189A857B}"/>
+    <hyperlink ref="D3" r:id="rId8" xr:uid="{DE7742FC-39AE-41F8-B385-05CD65F801A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId9"/>
 </worksheet>
 </file>